--- a/TEUTONIA.xlsx
+++ b/TEUTONIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{136DF137-00AC-4A1D-88A8-68906358FA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DB2581E-6990-4E92-AC47-34BBCE28D85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1308,7 +1308,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{13C7C652-0C10-4CAF-B0EC-0DDC289C0D68}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{4670706E-FE56-42E3-B18E-1920132DD5C8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1338,10 +1338,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC679432-86D0-4DE5-B40B-C51DD8A010E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F05BF6EE-32F8-469F-8A0A-82CB98C76C89}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1379,7 +1379,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ED1D57F-B59A-4964-AD89-C4AAFFD4DAD3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2596B9B2-0109-4E24-A55D-A9F70CA854BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1442,7 +1442,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{151C92C4-EA9D-431C-AFEC-1B95B105E0E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E931277-AE9F-413C-99E0-B19F2197C459}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1461,7 +1461,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96450731-1790-EB0C-E4B3-C11CC04597E1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23BACD9F-75DB-E61B-7FDC-1AEDBF041826}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1510,7 +1510,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51F43893-E843-D90B-99E4-184962CF0709}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6F4342B-FC00-C3A3-E5D2-5E23A4ED08CE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1529,7 +1529,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF62338D-A6AB-9729-013A-7EAB14318BF5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDD54E45-5A5C-3B34-18A3-46849189F2DA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1560,7 +1560,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8898589B-29B8-D5BF-5A17-35AEA78D7511}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B95BB2E9-286A-17BE-7FBC-3F03EE6670B8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1591,7 +1591,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82129EA6-F647-5ED6-600E-31ED1AFA5E60}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DBA898C-5A1A-58DE-DF6C-D96549D2563D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1634,7 +1634,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8857DA09-1D8C-4AFF-A8D4-9C1EF2DF9D2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55E5339D-CAEB-4197-9DA2-8BB3D5122C32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1672,7 +1672,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F636888-DF5D-4A0A-81E4-B64B2DEE2D68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1D00169-26FB-46AC-B2FF-5F9A696376C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1715,7 +1715,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D64406A2-BBE8-4513-9DC7-0631E60143CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6956CDF-8447-4594-A703-30429C28F20C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2028,7 +2028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE2C17E-81E6-4401-9E94-BC945511AC52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6814295-A583-4678-BA3E-2C57EBDF3A59}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/TEUTONIA.xlsx
+++ b/TEUTONIA.xlsx
@@ -8,27 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DB2581E-6990-4E92-AC47-34BBCE28D85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2ADC99E-F458-4DAD-9A3C-7F44CE7578D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="9" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="8" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="BENS-INTERINOS" sheetId="4" r:id="rId5"/>
     <sheet name="TABELIÕES-DOAÇÃO" sheetId="5" r:id="rId6"/>
     <sheet name="CPIP" sheetId="6" r:id="rId7"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="7" r:id="rId8"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="8" r:id="rId9"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="328">
   <si>
     <t>COMARCA</t>
   </si>
@@ -1012,12 +1011,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1288,27 +1281,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{4670706E-FE56-42E3-B18E-1920132DD5C8}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{26969EA4-2D25-4BD9-9349-39949AC7F00A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1338,10 +1316,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F05BF6EE-32F8-469F-8A0A-82CB98C76C89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC6DC6B4-FDD1-4A5C-BCB5-AA0E1A147B79}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1379,7 +1357,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2596B9B2-0109-4E24-A55D-A9F70CA854BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEC65832-4539-4795-AA61-48D062DB853C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1442,7 +1420,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E931277-AE9F-413C-99E0-B19F2197C459}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AA14673-4821-496E-AEFA-ACB2BE45849D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1461,7 +1439,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23BACD9F-75DB-E61B-7FDC-1AEDBF041826}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC2AF762-20B9-2259-C13C-78F889612109}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1510,7 +1488,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6F4342B-FC00-C3A3-E5D2-5E23A4ED08CE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC9F459D-E6A0-E930-9723-02586F9ABBC1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1529,7 +1507,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDD54E45-5A5C-3B34-18A3-46849189F2DA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B84D7369-2893-5564-BF13-54DB2DFF7799}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1560,7 +1538,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B95BB2E9-286A-17BE-7FBC-3F03EE6670B8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CBCF4F3-F3F9-0B61-AB98-8F7DD6A106F7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1591,7 +1569,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DBA898C-5A1A-58DE-DF6C-D96549D2563D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F4ABDEC-9336-A052-4CAD-FB920DCDF868}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1634,7 +1612,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55E5339D-CAEB-4197-9DA2-8BB3D5122C32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE35EEDF-5C4E-407E-AA7F-9143AA702625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1672,7 +1650,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1D00169-26FB-46AC-B2FF-5F9A696376C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFCCC62A-77B4-4B84-9DE2-DBEF4FA4ECEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1715,7 +1693,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6956CDF-8447-4594-A703-30429C28F20C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1048B599-B8BE-4592-9DD7-1670D6E6331A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2028,7 +2006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6814295-A583-4678-BA3E-2C57EBDF3A59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B33F91D-A56A-4ADE-AD44-7AFB88C74BAA}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2040,98 +2018,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="38"/>
-    <col min="6" max="6" width="2" style="38" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="38" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="38"/>
+    <col min="1" max="5" width="12.5703125" style="33"/>
+    <col min="6" max="6" width="2" style="33" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="33" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="37"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="37"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="37"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="37"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="37"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="37"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="37"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="37"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="37"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="37"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="37"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="37"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="37"/>
+      <c r="F13" s="32"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="37"/>
+      <c r="F14" s="32"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="37"/>
+      <c r="F15" s="32"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="37"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="37"/>
+      <c r="F17" s="32"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="37"/>
+      <c r="F18" s="32"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="37"/>
+      <c r="F19" s="32"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="37"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="37"/>
+      <c r="F21" s="32"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="37"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="37"/>
+      <c r="F23" s="32"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="37"/>
+      <c r="F24" s="32"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="37"/>
+      <c r="F25" s="32"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="37"/>
+      <c r="F26" s="32"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="37"/>
+      <c r="F27" s="32"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="37"/>
+      <c r="F28" s="32"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="37"/>
+      <c r="F29" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -6356,52 +6334,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>329</v>
-      </c>
-      <c r="E1" s="33">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>282</v>
-      </c>
-      <c r="B2" s="36">
-        <v>32</v>
-      </c>
-      <c r="C2" s="34">
-        <v>2.1161222060574001E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/TEUTONIA.xlsx
+++ b/TEUTONIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2ADC99E-F458-4DAD-9A3C-7F44CE7578D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15F22BAE-19E1-414B-92F2-01F41B16B15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1286,7 +1286,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{26969EA4-2D25-4BD9-9349-39949AC7F00A}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{BDDEDEE2-7479-4A11-9696-DD420C0DC273}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1316,10 +1316,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC6DC6B4-FDD1-4A5C-BCB5-AA0E1A147B79}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB2EBA82-5799-4F74-92A9-745F9C085619}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1357,7 +1357,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEC65832-4539-4795-AA61-48D062DB853C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7FCCFD0-AF4C-46F2-AD2F-C42597830258}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1420,7 +1420,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AA14673-4821-496E-AEFA-ACB2BE45849D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFC69409-92F9-480A-A9BE-11380F67A50A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1439,7 +1439,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC2AF762-20B9-2259-C13C-78F889612109}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6974C3EF-030B-9AB4-656A-4EA64F18164E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1488,7 +1488,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC9F459D-E6A0-E930-9723-02586F9ABBC1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{654FD09A-82D6-5DA5-B48F-6E39C15E2046}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1507,7 +1507,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B84D7369-2893-5564-BF13-54DB2DFF7799}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97482C48-30EE-065D-C756-77640E957444}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1538,7 +1538,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CBCF4F3-F3F9-0B61-AB98-8F7DD6A106F7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F54C86B4-3FB2-6ADD-37CD-277F1CCF8791}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1569,7 +1569,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F4ABDEC-9336-A052-4CAD-FB920DCDF868}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A81F0E2-195E-BE1C-6EB7-CD5DF4BFD078}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1612,7 +1612,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE35EEDF-5C4E-407E-AA7F-9143AA702625}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCC11E82-B03E-4798-A198-287269998D93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1650,7 +1650,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFCCC62A-77B4-4B84-9DE2-DBEF4FA4ECEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0549D5B7-D693-4EA2-9FB8-090055573949}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1675,50 +1675,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1048B599-B8BE-4592-9DD7-1670D6E6331A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2006,7 +1962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B33F91D-A56A-4ADE-AD44-7AFB88C74BAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC4D6FB-CB66-4107-AD9D-F5D98B514027}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
